--- a/Unix Notes.xlsx
+++ b/Unix Notes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>file</t>
   </si>
@@ -75,6 +75,60 @@
   </si>
   <si>
     <t>mv old_fldr new_fldr</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>to view a text file</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>cat foo.txt
+cat /etc/resolv.conf</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkdir dirname </t>
+  </si>
+  <si>
+    <t>mkdir &lt;dirname&gt;</t>
+  </si>
+  <si>
+    <t>rm -r mydir</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>rm = remove
+-r = recursive
+mdir = directory name</t>
+  </si>
+  <si>
+    <t>file+dir</t>
+  </si>
+  <si>
+    <t>copy all</t>
+  </si>
+  <si>
+    <t>cp -rf /tmp/ignite/apache-ignite-2.7.0-bin /u1/apps/ignite/</t>
+  </si>
+  <si>
+    <t>cp = copy
+r = recursive
+f = force
+slash places role inclusive of directory name or inside directory</t>
   </si>
 </sst>
 </file>
@@ -407,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E9"/>
+  <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +566,73 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Unix Notes.xlsx
+++ b/Unix Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pg38446\Tech\Code Practice\git.pradhapganesanj\pg-notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/GDrive_PradhapGanesanJava/pradhapganesanj-gitrepo/pg-notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E1721-E899-7A4D-9286-6C97AAFDF5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="8565"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>file</t>
   </si>
@@ -130,12 +131,69 @@
 f = force
 slash places role inclusive of directory name or inside directory</t>
   </si>
+  <si>
+    <t>touch kamal.txt
+touch /home/kamal/kamal.txt</t>
+  </si>
+  <si>
+    <t>touch create empty file</t>
+  </si>
+  <si>
+    <t>vi create file and open to edit</t>
+  </si>
+  <si>
+    <t>vi kamal.txt
+vi /home/kamal/kamal.txt</t>
+  </si>
+  <si>
+    <t>cat &gt; kamal.txt
+cat &gt; /home/kamal/kamal.txt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- cat &gt; FILENAME
+-- Write something on terminal
+-- Press </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ctrl+D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- kamal.txt created with content written 
+You can give full path of file as well, like cat &gt; /home/kamal/kamal.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>sed -n '6p' testfile.txt</t>
+  </si>
+  <si>
+    <t>read spcific line  (Ex: 6th line)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +206,14 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -460,24 +526,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="67.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,81 +621,137 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="16" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="2:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="18" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="19" spans="2:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
